--- a/Documentation/Traceability/Requierements/Req_Main.xlsx
+++ b/Documentation/Traceability/Requierements/Req_Main.xlsx
@@ -2,13 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="SWR" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="SWT" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -17,6 +18,62 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linked_down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last_Modified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last_Accepted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linked_up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_Expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created_By</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First_Created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last_Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">History</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29,6 +86,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -46,20 +104,33 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -88,7 +159,15 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -102,6 +181,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -216,14 +355,60 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.68"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -232,4 +417,80 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="45.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="0" width="26.01"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>